--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3612551.976609782</v>
+        <v>3608246.853612712</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7625610.529198848</v>
+        <v>7625610.529198847</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>152.0747039460368</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>152.0747039460364</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.527456720693563</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>143.0504189203499</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>38.07029849950369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.8578877276004</v>
+        <v>92.85788772760063</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>54.74286518015767</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>63.66205098107876</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074793</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>90.93414950619302</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304066</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>6.617008478528212</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>45.66399984503821</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>212.3435331937498</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>111.5004218823109</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1220,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>6.8401189682935</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>136.3525127092046</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>49.25360284882781</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>92.87435055577281</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>235.8244881232821</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>80.10107535865887</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>223.1546446143035</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>46.35517081455633</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>228.3065569372539</v>
+        <v>219.2450387532285</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>126.6035148834796</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>10.74993283584276</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573456</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>75.00788511618036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784714</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>115.7228684476109</v>
       </c>
       <c r="U43" t="n">
-        <v>272.5219151058078</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634834</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C46" t="n">
-        <v>5.94317878650419</v>
+        <v>123.9815576456775</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407.0717515820911</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="C2" t="n">
-        <v>217.6519665656065</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="D2" t="n">
-        <v>217.6519665656065</v>
+        <v>596.491536598577</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656065</v>
+        <v>407.071751582092</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>217.6519665656069</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U2" t="n">
-        <v>596.4915365985757</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V2" t="n">
-        <v>596.4915365985757</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="W2" t="n">
-        <v>596.4915365985757</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="X2" t="n">
-        <v>596.4915365985757</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Y2" t="n">
-        <v>407.0717515820911</v>
+        <v>750.1023486652808</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181.8429936158253</v>
+        <v>364.227097959543</v>
       </c>
       <c r="C3" t="n">
-        <v>181.8429936158253</v>
+        <v>189.774068678416</v>
       </c>
       <c r="D3" t="n">
-        <v>181.8429936158253</v>
+        <v>189.774068678416</v>
       </c>
       <c r="E3" t="n">
-        <v>22.60553861036979</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="F3" t="n">
-        <v>22.60553861036979</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652792</v>
+        <v>532.4424349796111</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652792</v>
+        <v>532.4424349796111</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652792</v>
+        <v>532.4424349796111</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487946</v>
+        <v>532.4424349796111</v>
       </c>
       <c r="W3" t="n">
-        <v>371.26277863231</v>
+        <v>532.4424349796111</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158253</v>
+        <v>532.4424349796111</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158253</v>
+        <v>532.4424349796111</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829027</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1341.544105080013</v>
+        <v>946.757171205468</v>
       </c>
       <c r="C5" t="n">
-        <v>1341.544105080013</v>
+        <v>577.7946542650564</v>
       </c>
       <c r="D5" t="n">
-        <v>1341.544105080013</v>
+        <v>577.7946542650564</v>
       </c>
       <c r="E5" t="n">
-        <v>955.7558524817691</v>
+        <v>577.7946542650564</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921616</v>
+        <v>166.8087494754488</v>
       </c>
       <c r="G5" t="n">
         <v>128.3539025062531</v>
@@ -4564,55 +4564,55 @@
         <v>128.3539025062531</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="J5" t="n">
-        <v>111.670553901722</v>
+        <v>111.6705539017212</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746979</v>
+        <v>277.9807166746964</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030763</v>
+        <v>521.2049416030741</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709183</v>
+        <v>823.5081935709148</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582752</v>
+        <v>1135.316836582748</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.41363507924</v>
+        <v>1416.413635079235</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332759</v>
+        <v>1621.822248332752</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837885</v>
+        <v>1727.902815837878</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837885</v>
+        <v>1727.902815837878</v>
       </c>
       <c r="S5" t="n">
-        <v>1672.606992423584</v>
+        <v>1586.994975598226</v>
       </c>
       <c r="T5" t="n">
-        <v>1672.606992423584</v>
+        <v>1586.994975598226</v>
       </c>
       <c r="U5" t="n">
-        <v>1672.606992423584</v>
+        <v>1333.35701126959</v>
       </c>
       <c r="V5" t="n">
-        <v>1341.544105080013</v>
+        <v>1333.35701126959</v>
       </c>
       <c r="W5" t="n">
-        <v>1341.544105080013</v>
+        <v>1333.35701126959</v>
       </c>
       <c r="X5" t="n">
-        <v>1341.544105080013</v>
+        <v>1333.35701126959</v>
       </c>
       <c r="Y5" t="n">
-        <v>1341.544105080013</v>
+        <v>1333.35701126959</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>716.1701874635851</v>
+        <v>514.7830985764551</v>
       </c>
       <c r="C6" t="n">
-        <v>541.7171581824581</v>
+        <v>340.3300692953281</v>
       </c>
       <c r="D6" t="n">
-        <v>477.4120561813684</v>
+        <v>340.3300692953281</v>
       </c>
       <c r="E6" t="n">
-        <v>318.1746011759129</v>
+        <v>181.0926142898726</v>
       </c>
       <c r="F6" t="n">
-        <v>171.6400432027979</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787539</v>
+        <v>61.66788464787494</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806064</v>
+        <v>186.1577239806055</v>
       </c>
       <c r="L6" t="n">
-        <v>399.872217118998</v>
+        <v>399.8722171189964</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223503</v>
+        <v>668.6238185223481</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352485</v>
+        <v>958.8971200352453</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.220686228316</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639509</v>
+        <v>1378.176233639505</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906545</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703774</v>
+        <v>1445.878660906545</v>
       </c>
       <c r="S6" t="n">
-        <v>1401.100270703774</v>
+        <v>1445.878660906545</v>
       </c>
       <c r="T6" t="n">
-        <v>1205.559652423529</v>
+        <v>1445.878660906545</v>
       </c>
       <c r="U6" t="n">
-        <v>1205.559652423529</v>
+        <v>1217.763518862102</v>
       </c>
       <c r="V6" t="n">
-        <v>970.4075441917867</v>
+        <v>982.6114106303589</v>
       </c>
       <c r="W6" t="n">
-        <v>716.1701874635851</v>
+        <v>982.6114106303589</v>
       </c>
       <c r="X6" t="n">
-        <v>716.1701874635851</v>
+        <v>890.7587343614771</v>
       </c>
       <c r="Y6" t="n">
-        <v>716.1701874635851</v>
+        <v>682.9984355965232</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675769</v>
+        <v>363.1352026377901</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675769</v>
+        <v>363.1352026377901</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675769</v>
+        <v>213.0185632254544</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675769</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675769</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675769</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675769</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675769</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574694</v>
+        <v>64.24066662574653</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584116</v>
+        <v>132.1299861584108</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347973</v>
+        <v>206.9680378347961</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195368</v>
+        <v>287.8841338195352</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934719</v>
+        <v>342.3101561934699</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495857984</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858007</v>
+        <v>363.1352026377901</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858007</v>
+        <v>363.1352026377901</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858007</v>
+        <v>363.1352026377901</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858007</v>
+        <v>363.1352026377901</v>
       </c>
       <c r="U7" t="n">
-        <v>80.68330868548315</v>
+        <v>363.1352026377901</v>
       </c>
       <c r="V7" t="n">
-        <v>80.68330868548315</v>
+        <v>363.1352026377901</v>
       </c>
       <c r="W7" t="n">
-        <v>80.68330868548315</v>
+        <v>363.1352026377901</v>
       </c>
       <c r="X7" t="n">
-        <v>34.55805631675769</v>
+        <v>363.1352026377901</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675769</v>
+        <v>363.1352026377901</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1124.456920967174</v>
+        <v>1781.859986840531</v>
       </c>
       <c r="C8" t="n">
-        <v>755.4944040267628</v>
+        <v>1412.897469900119</v>
       </c>
       <c r="D8" t="n">
-        <v>755.4944040267628</v>
+        <v>1054.631771293369</v>
       </c>
       <c r="E8" t="n">
-        <v>369.7061514285186</v>
+        <v>668.8435186951247</v>
       </c>
       <c r="F8" t="n">
-        <v>362.7606506793151</v>
+        <v>257.8576139055171</v>
       </c>
       <c r="G8" t="n">
-        <v>350.7700094231265</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
         <v>43.36919653809306</v>
@@ -4804,19 +4804,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4834,22 +4834,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.659140286557</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1514.596252942986</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>1514.596252942986</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="X8" t="n">
-        <v>1514.596252942986</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="Y8" t="n">
-        <v>1124.456920967174</v>
+        <v>2168.459826904653</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>782.2886830373634</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>607.8356537562364</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>458.9012440949851</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9012440949851</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
         <v>1166.88538687358</v>
@@ -4901,34 +4901,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1759.317836254402</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1620.35317575612</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1620.35317575612</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1620.35317575612</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1620.35317575612</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1366.115819027918</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>1158.264318822385</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>950.5040200574315</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>359.7366157340737</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>209.6199763217379</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.289347040599</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>520.289347040599</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>321.1098614248253</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>271.3587474361104</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>271.3587474361104</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>271.3587474361104</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W10" t="n">
-        <v>271.3587474361104</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809306</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809306</v>
+        <v>497.4664265514521</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,34 +5029,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>416.6057892068301</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>269.7158417089197</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1450.179300194825</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1160.762130157864</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>932.7725792598471</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>711.980000116317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5652,25 +5652,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5743,34 +5743,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5779,22 +5779,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>808.8888553856862</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C22" t="n">
-        <v>639.9526724577793</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D22" t="n">
-        <v>489.8360330454435</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E22" t="n">
-        <v>341.9229394630504</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159259</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,34 +6241,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>719.5738700011939</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>550.637687073287</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V31" t="n">
-        <v>1457.773170079702</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>1168.356000042741</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>940.366449144724</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>719.5738700011939</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,22 +6712,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6931,46 +6931,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6979,10 +6979,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,64 +7399,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L42" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>866.4638174991051</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>697.527634571198</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>697.527634571198</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888047</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>235.528494205774</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797745</v>
@@ -7581,40 +7581,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2330.071297269543</v>
       </c>
       <c r="U43" t="n">
-        <v>1769.232122535068</v>
+        <v>2040.99607061374</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.232122535068</v>
+        <v>1786.311582407853</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1496.894412370893</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>1268.904861472875</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>1048.112282329345</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,64 +7636,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969296</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969296</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
         <v>2319.799627685893</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>388.6197041282757</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282757</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458824</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7818,40 +7818,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>72.64978773649604</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>16.31315520054591</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>19.50758019582707</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>146.8157004124962</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>65.31997266427237</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>63.36835372228745</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>179.3544845744808</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>23.83108638657413</v>
+        <v>32.8926045705995</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>125.5341284403484</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>207.834720516252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>45.4467738245917</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>101.6825818796775</v>
       </c>
       <c r="U43" t="n">
-        <v>13.66255928343634</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>161.3036423121237</v>
+        <v>43.26526345295049</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>660355.9349123004</v>
+        <v>660355.9349123006</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>660355.9349123004</v>
+        <v>660355.9349123006</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660355.9349123004</v>
+        <v>660355.9349123006</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123003</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710686</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710694</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055064</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="K2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055057</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253127</v>
+        <v>270592.3620253102</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231927</v>
+        <v>115410.0540231946</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854472</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881977</v>
+        <v>62913.6376588192</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197485</v>
+        <v>27875.25362197535</v>
       </c>
       <c r="M3" t="n">
         <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>8.469915895085297e-12</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263462</v>
+        <v>206604.4229263467</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26432,34 +26432,34 @@
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687972</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="H4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687964</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687946</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687946</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936819</v>
+        <v>76435.73471936805</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26505,13 +26505,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146889.5863955198</v>
+        <v>-146889.5863955205</v>
       </c>
       <c r="C6" t="n">
-        <v>226357.1617000423</v>
+        <v>226357.1617000441</v>
       </c>
       <c r="D6" t="n">
-        <v>405177.5554031067</v>
+        <v>405177.5554031049</v>
       </c>
       <c r="E6" t="n">
-        <v>48786.8923004536</v>
+        <v>48439.51304609714</v>
       </c>
       <c r="F6" t="n">
-        <v>650230.0998747189</v>
+        <v>649882.7206203624</v>
       </c>
       <c r="G6" t="n">
-        <v>650230.0998747189</v>
+        <v>649882.7206203621</v>
       </c>
       <c r="H6" t="n">
-        <v>650230.0998747192</v>
+        <v>649882.7206203626</v>
       </c>
       <c r="I6" t="n">
-        <v>650230.0998747192</v>
+        <v>649882.7206203619</v>
       </c>
       <c r="J6" t="n">
-        <v>601165.1551461747</v>
+        <v>600817.7758918174</v>
       </c>
       <c r="K6" t="n">
-        <v>587316.4622158994</v>
+        <v>586969.0829615435</v>
       </c>
       <c r="L6" t="n">
-        <v>622354.8462527444</v>
+        <v>622007.4669983869</v>
       </c>
       <c r="M6" t="n">
-        <v>493083.7193231213</v>
+        <v>492736.3400687641</v>
       </c>
       <c r="N6" t="n">
-        <v>650230.0998747193</v>
+        <v>649882.7206203617</v>
       </c>
       <c r="O6" t="n">
-        <v>650230.0998747189</v>
+        <v>649882.7206203624</v>
       </c>
       <c r="P6" t="n">
-        <v>650230.0998747189</v>
+        <v>649882.7206203622</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950617</v>
+        <v>758.8996292950602</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594712</v>
+        <v>431.9757039594695</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26813,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.966615459035109e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821572</v>
+        <v>210.4296883821553</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262232</v>
+        <v>94.81103524262392</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039897</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931514</v>
+        <v>244.4501167931492</v>
       </c>
       <c r="D4" t="n">
-        <v>110.139252766692</v>
+        <v>110.1392527666937</v>
       </c>
       <c r="E4" t="n">
         <v>630.5933313734852</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663204</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931514</v>
+        <v>244.450116793149</v>
       </c>
       <c r="L4" t="n">
-        <v>110.139252766692</v>
+        <v>110.139252766694</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.966615459035109e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931514</v>
+        <v>244.4501167931492</v>
       </c>
       <c r="L4" t="n">
-        <v>110.139252766692</v>
+        <v>110.1392527666937</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>202.6083376746462</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059416</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>219.3504585753912</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399021</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27435,7 +27435,7 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>99.09455661899389</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897338</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>128.6363326450818</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>6.719825770599726</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310546</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945998</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715767</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>115.030874844193</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,16 +27554,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27596,7 +27596,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>199.9216970693937</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>374.1815862345457</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425906</v>
+        <v>23.94240680425943</v>
       </c>
       <c r="S5" t="n">
-        <v>84.75589665709782</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>209.7407415149289</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>83.78301458355999</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246131</v>
+        <v>96.47037835246134</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937514</v>
+        <v>43.32085084937525</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074813</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>141.3629830843607</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>114.8388356972845</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599131</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304048</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589153</v>
+        <v>30.29414912736355</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166225</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130602</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>180.0456555439989</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>199.527201649877</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>139.5706708118049</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27940,19 +27940,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>24.82874190892083</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>172.4862383660574</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>30.89430838942323</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>172.1142158854748</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -30750,10 +30750,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-8.851769786316591e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085673</v>
+        <v>3.050852781085667</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429365</v>
+        <v>31.24454604429359</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428053</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286703</v>
+        <v>258.9373162286698</v>
       </c>
       <c r="K5" t="n">
-        <v>388.079914452027</v>
+        <v>388.0799144520262</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511777</v>
+        <v>481.4474502511768</v>
       </c>
       <c r="M5" t="n">
-        <v>535.70305339681</v>
+        <v>535.703053396809</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610697</v>
+        <v>544.3712888610687</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191491</v>
+        <v>514.0343715191481</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860965</v>
+        <v>438.7164434860956</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634657</v>
+        <v>329.4577782634651</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098731</v>
+        <v>191.6431310098727</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898984</v>
+        <v>69.5213077489897</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920254</v>
+        <v>13.35510804920251</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868538</v>
+        <v>0.2440682224868533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.632350146030884</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403512</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062486</v>
+        <v>56.20152915062475</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475937</v>
+        <v>154.2212916475933</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316631</v>
+        <v>263.5887514316626</v>
       </c>
       <c r="L6" t="n">
-        <v>354.427605172189</v>
+        <v>354.4276051721883</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658086</v>
+        <v>413.6002979658078</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468667</v>
+        <v>424.5470671468659</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374454</v>
+        <v>388.3776244374446</v>
       </c>
       <c r="P6" t="n">
-        <v>311.707283587249</v>
+        <v>311.7072835872485</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547498</v>
+        <v>208.3680642547494</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632158</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947721</v>
+        <v>30.32018801947715</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378881</v>
+        <v>6.579516597378869</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757161</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528236994</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377985</v>
+        <v>12.16727602377983</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734532</v>
+        <v>41.15475366734524</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635563</v>
+        <v>96.75348224635545</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260801</v>
+        <v>158.9956928260798</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162531</v>
+        <v>203.4597465162527</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399139</v>
+        <v>214.5197755399134</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528489</v>
+        <v>209.4189747528485</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275348</v>
+        <v>193.4323186275344</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650514996</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235541</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054711</v>
+        <v>61.53307486054699</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391201</v>
+        <v>23.84935392391196</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830801</v>
+        <v>5.84725943883079</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656352</v>
+        <v>0.07464586517656338</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31530,10 +31530,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839008</v>
@@ -31542,22 +31542,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076062</v>
@@ -31609,19 +31609,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349506</v>
@@ -31630,10 +31630,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
         <v>0.1208081129062761</v>
@@ -31679,22 +31679,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595396</v>
@@ -31706,13 +31706,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
         <v>0.08397154077419852</v>
@@ -31843,25 +31843,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32086,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,7 +32314,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>167.4835451665588</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,37 +32551,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>395.1848490935921</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>243.172991359853</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>639.47033547631</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>624.1318526922785</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M39" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>163.143825593292</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M42" t="n">
-        <v>432.1946015714842</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>163.143825593292</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>277.4567226539297</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O45" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198405</v>
+        <v>77.89141170198354</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070464</v>
+        <v>167.9900634070457</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811905</v>
+        <v>245.6810352811896</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695373</v>
+        <v>305.3568201695363</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644788</v>
+        <v>314.9582252644778</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974623</v>
+        <v>283.9361600974613</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308269</v>
+        <v>207.4834477308261</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890162</v>
+        <v>107.1520883890156</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092697</v>
+        <v>27.38366498092665</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573041</v>
+        <v>125.7473124573036</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923148</v>
+        <v>215.8732253923141</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437903</v>
+        <v>271.4662640437895</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635334</v>
+        <v>293.2053550635326</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930009</v>
+        <v>245.7813799930002</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729188</v>
+        <v>177.7328761729182</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872827</v>
+        <v>68.38629016872787</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554469</v>
+        <v>29.98243465554441</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501483</v>
+        <v>68.57507023501444</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230881</v>
+        <v>75.59399159230838</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761568</v>
+        <v>81.73343028761528</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569199</v>
+        <v>54.97578017569163</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235231</v>
+        <v>27.78676100235199</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873099</v>
@@ -35190,7 +35190,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
         <v>148.31198861839</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169987</v>
@@ -35260,7 +35260,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319509</v>
@@ -35272,7 +35272,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,19 +35333,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
         <v>48.46489236084162</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35734,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>25.34951124454049</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>253.0508151715738</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>116.3353646931863</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>481.5356082478341</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M39" t="n">
-        <v>327.4227480353227</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884752</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M42" t="n">
-        <v>290.0605676494659</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884752</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>138.9023428740554</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O45" t="n">
-        <v>173.4910455250332</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3608246.853612712</v>
+        <v>3610007.383915497</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>152.0747039460368</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663202</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>158.9209832102731</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846314</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
-        <v>143.0504189203499</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.252236434188975</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>38.07029849950369</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760063</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425915</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>173.4479249732759</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>196.3506765115049</v>
       </c>
       <c r="X6" t="n">
-        <v>90.93414950619302</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>3.142215060960092</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304066</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.617008478528212</v>
+        <v>36.91115760589159</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>234.1223803994658</v>
       </c>
       <c r="G8" t="n">
-        <v>212.3435331937498</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>20.27697994470623</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>20.27697994470635</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>136.3525127092046</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>9.085774025512567</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79977260571614</v>
+        <v>118.6708469029954</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
-        <v>129.1078928223853</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,10 +2140,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>164.5981994227929</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>102.1557845699818</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>219.2450387532285</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812055</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3319,7 +3319,7 @@
         <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>134.3852063573456</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>1.594095449514112</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012163</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784714</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T43" t="n">
-        <v>115.7228684476109</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>123.9815576456775</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012177</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365911</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652808</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>750.1023486652808</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>596.491536598577</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>407.071751582092</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656069</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897907</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985592</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652808</v>
+        <v>672.242026426225</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652808</v>
+        <v>511.8624171433431</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652808</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652808</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652808</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652808</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652808</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652808</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>364.227097959543</v>
+        <v>485.2430363127824</v>
       </c>
       <c r="C3" t="n">
-        <v>189.774068678416</v>
+        <v>485.2430363127824</v>
       </c>
       <c r="D3" t="n">
-        <v>189.774068678416</v>
+        <v>336.3086266515311</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296049</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296049</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296049</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296049</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296049</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140242</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017073</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264292</v>
+        <v>676.9378076264276</v>
       </c>
       <c r="S3" t="n">
-        <v>532.4424349796111</v>
+        <v>676.9378076264276</v>
       </c>
       <c r="T3" t="n">
-        <v>532.4424349796111</v>
+        <v>674.662821329267</v>
       </c>
       <c r="U3" t="n">
-        <v>532.4424349796111</v>
+        <v>485.2430363127824</v>
       </c>
       <c r="V3" t="n">
-        <v>532.4424349796111</v>
+        <v>485.2430363127824</v>
       </c>
       <c r="W3" t="n">
-        <v>532.4424349796111</v>
+        <v>485.2430363127824</v>
       </c>
       <c r="X3" t="n">
-        <v>532.4424349796111</v>
+        <v>485.2430363127824</v>
       </c>
       <c r="Y3" t="n">
-        <v>532.4424349796111</v>
+        <v>485.2430363127824</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230187</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170739</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396366</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>946.757171205468</v>
+        <v>412.1448968182161</v>
       </c>
       <c r="C5" t="n">
-        <v>577.7946542650564</v>
+        <v>412.1448968182161</v>
       </c>
       <c r="D5" t="n">
-        <v>577.7946542650564</v>
+        <v>53.87919821146556</v>
       </c>
       <c r="E5" t="n">
-        <v>577.7946542650564</v>
+        <v>53.87919821146556</v>
       </c>
       <c r="F5" t="n">
-        <v>166.8087494754488</v>
+        <v>46.93369746226209</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017212</v>
+        <v>111.6705539017217</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746964</v>
+        <v>277.9807166746975</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030741</v>
+        <v>521.2049416030759</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709148</v>
+        <v>823.5081935709175</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582748</v>
+        <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079235</v>
+        <v>1416.413635079239</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332752</v>
+        <v>1621.822248332757</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837878</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837878</v>
+        <v>1703.718566540652</v>
       </c>
       <c r="S5" t="n">
-        <v>1586.994975598226</v>
+        <v>1703.718566540652</v>
       </c>
       <c r="T5" t="n">
-        <v>1586.994975598226</v>
+        <v>1703.718566540652</v>
       </c>
       <c r="U5" t="n">
-        <v>1333.35701126959</v>
+        <v>1528.518642325222</v>
       </c>
       <c r="V5" t="n">
-        <v>1333.35701126959</v>
+        <v>1528.518642325222</v>
       </c>
       <c r="W5" t="n">
-        <v>1333.35701126959</v>
+        <v>1175.749987055108</v>
       </c>
       <c r="X5" t="n">
-        <v>1333.35701126959</v>
+        <v>802.2842287940277</v>
       </c>
       <c r="Y5" t="n">
-        <v>1333.35701126959</v>
+        <v>412.1448968182161</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>514.7830985764551</v>
+        <v>663.7175082377065</v>
       </c>
       <c r="C6" t="n">
-        <v>340.3300692953281</v>
+        <v>489.2644789565795</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953281</v>
+        <v>340.3300692953282</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898726</v>
+        <v>181.0926142898727</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787494</v>
+        <v>61.66788464787528</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806055</v>
+        <v>186.1577239806062</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189964</v>
+        <v>399.8722171189977</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223481</v>
+        <v>668.6238185223499</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352453</v>
+        <v>958.8971200352478</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228316</v>
+        <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639505</v>
+        <v>1378.176233639508</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906545</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906545</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906545</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906545</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="U6" t="n">
-        <v>1217.763518862102</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="V6" t="n">
-        <v>982.6114106303589</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="W6" t="n">
-        <v>982.6114106303589</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="X6" t="n">
-        <v>890.7587343614771</v>
+        <v>1039.693144022728</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.9984355965232</v>
+        <v>831.9328452577745</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363.1352026377901</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="C7" t="n">
-        <v>363.1352026377901</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="D7" t="n">
-        <v>213.0185632254544</v>
+        <v>329.3610973970611</v>
       </c>
       <c r="E7" t="n">
-        <v>65.10546964306127</v>
+        <v>181.448003814668</v>
       </c>
       <c r="F7" t="n">
-        <v>65.10546964306127</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="G7" t="n">
-        <v>65.10546964306127</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="H7" t="n">
-        <v>65.10546964306127</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306127</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574653</v>
+        <v>64.24066662574685</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584108</v>
+        <v>132.1299861584114</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347961</v>
+        <v>206.968037834797</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195352</v>
+        <v>287.8841338195365</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934699</v>
+        <v>342.3101561934715</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857984</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="Q7" t="n">
-        <v>363.1352026377901</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="R7" t="n">
-        <v>363.1352026377901</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="S7" t="n">
-        <v>363.1352026377901</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="T7" t="n">
-        <v>363.1352026377901</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="U7" t="n">
-        <v>363.1352026377901</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="V7" t="n">
-        <v>363.1352026377901</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="W7" t="n">
-        <v>363.1352026377901</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="X7" t="n">
-        <v>363.1352026377901</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="Y7" t="n">
-        <v>363.1352026377901</v>
+        <v>332.5350520040915</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1781.859986840531</v>
+        <v>1098.028444226847</v>
       </c>
       <c r="C8" t="n">
-        <v>1412.897469900119</v>
+        <v>729.065927286435</v>
       </c>
       <c r="D8" t="n">
-        <v>1054.631771293369</v>
+        <v>370.8002286796845</v>
       </c>
       <c r="E8" t="n">
-        <v>668.8435186951247</v>
+        <v>370.8002286796845</v>
       </c>
       <c r="F8" t="n">
-        <v>257.8576139055171</v>
+        <v>134.3129757509312</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4840,16 +4840,16 @@
         <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904653</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904653</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="Y8" t="n">
-        <v>2168.459826904653</v>
+        <v>1484.628284290968</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>693.0104463829875</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>518.5574171018606</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>369.6230074406093</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>210.3855524351538</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="G9" t="n">
         <v>43.36919653809306</v>
@@ -4913,22 +4913,22 @@
         <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1531.074939101744</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>861.2257834030556</v>
       </c>
     </row>
     <row r="10">
@@ -4941,31 +4941,31 @@
         <v>497.4664265514521</v>
       </c>
       <c r="C10" t="n">
-        <v>359.7366157340737</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="D10" t="n">
-        <v>209.6199763217379</v>
+        <v>347.3497871391163</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934482</v>
+        <v>199.4366935567232</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934482</v>
+        <v>52.54674605881283</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934482</v>
+        <v>52.54674605881283</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934482</v>
+        <v>52.54674605881283</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>52.54674605881283</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5132,10 +5132,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>380.8823046593499</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>213.6862053742298</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5415,19 +5415,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5652,25 +5652,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5746,31 +5746,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5779,16 +5779,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6016,7 +6016,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,34 +6241,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6931,46 +6931,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6979,10 +6979,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516147</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348534</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.7594328861248</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C40" t="n">
-        <v>390.823249958218</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D40" t="n">
-        <v>240.7066105458823</v>
+        <v>634.334587849125</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458823</v>
+        <v>486.4214942667319</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.28419561186</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138424</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703123</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,64 +7399,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273915</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>866.4638174991051</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>697.527634571198</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>697.527634571198</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888047</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908942</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.528494205774</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>2330.071297269543</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>2040.99607061374</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1786.311582407853</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1496.894412370893</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1268.904861472875</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>1048.112282329345</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168615</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273915</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J45" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969296</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969296</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,61 +7782,61 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400711</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>388.6197041282757</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282757</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458824</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
         <v>1688.385853854706</v>
@@ -7845,13 +7845,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138412</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405078</v>
+        <v>21.62386594322854</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
-        <v>19.50758019582707</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.45968844823057</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>32.8926045705995</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405073</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>45.4467738245917</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>143.8269525734171</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012177</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016447</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T43" t="n">
-        <v>101.6825818796775</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>43.26526345295049</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>660355.9349123004</v>
+        <v>660355.9349123006</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660355.9349123004</v>
+        <v>660355.9349123006</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>660355.9349123003</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710686</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055062</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.269705506</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055064</v>
+        <v>766789.269705506</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253102</v>
+        <v>270592.3620253122</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231946</v>
+        <v>115410.0540231932</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.2075742651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854472</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.6376588192</v>
+        <v>62913.63765881968</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197535</v>
+        <v>27875.253621975</v>
       </c>
       <c r="M3" t="n">
         <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
-        <v>3.139184627798386e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.469915895085297e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263467</v>
+        <v>206604.4229263463</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15436.64000687971</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15436.64000687971</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15436.64000687971</v>
+      </c>
+      <c r="P4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687961</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687964</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15436.64000687961</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687946</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687946</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936805</v>
+        <v>76435.73471936816</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26505,13 +26505,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146889.5863955205</v>
+        <v>-146889.5863955201</v>
       </c>
       <c r="C6" t="n">
-        <v>226357.1617000441</v>
+        <v>226357.1617000425</v>
       </c>
       <c r="D6" t="n">
-        <v>405177.5554031049</v>
+        <v>405177.5554031061</v>
       </c>
       <c r="E6" t="n">
-        <v>48439.51304609714</v>
+        <v>48752.15437501826</v>
       </c>
       <c r="F6" t="n">
-        <v>649882.7206203624</v>
+        <v>650195.3619492837</v>
       </c>
       <c r="G6" t="n">
-        <v>649882.7206203621</v>
+        <v>650195.3619492836</v>
       </c>
       <c r="H6" t="n">
-        <v>649882.7206203626</v>
+        <v>650195.3619492836</v>
       </c>
       <c r="I6" t="n">
-        <v>649882.7206203619</v>
+        <v>650195.3619492836</v>
       </c>
       <c r="J6" t="n">
-        <v>600817.7758918174</v>
+        <v>601130.4172207389</v>
       </c>
       <c r="K6" t="n">
-        <v>586969.0829615435</v>
+        <v>587281.724290464</v>
       </c>
       <c r="L6" t="n">
-        <v>622007.4669983869</v>
+        <v>622320.1083273088</v>
       </c>
       <c r="M6" t="n">
-        <v>492736.3400687641</v>
+        <v>493048.9813976858</v>
       </c>
       <c r="N6" t="n">
-        <v>649882.7206203617</v>
+        <v>650195.3619492834</v>
       </c>
       <c r="O6" t="n">
-        <v>649882.7206203624</v>
+        <v>650195.3619492837</v>
       </c>
       <c r="P6" t="n">
-        <v>649882.7206203622</v>
+        <v>650195.3619492834</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950602</v>
+        <v>758.8996292950613</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594695</v>
+        <v>431.9757039594708</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.966615459035109e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821553</v>
+        <v>210.4296883821569</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262392</v>
+        <v>94.81103524262278</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039896</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931492</v>
+        <v>244.450116793151</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666937</v>
+        <v>110.1392527666925</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663204</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793149</v>
+        <v>244.450116793151</v>
       </c>
       <c r="L4" t="n">
-        <v>110.139252766694</v>
+        <v>110.1392527666926</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.966615459035109e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931492</v>
+        <v>244.450116793151</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666937</v>
+        <v>110.1392527666925</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>202.6083376746462</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059416</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753912</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399021</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166637</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>54.52289784593373</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510932</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>6.719825770599726</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>193.1573613578123</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377108</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>115.030874844193</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,16 +27554,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825412</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515972</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27593,7 +27593,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.049135239016</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>374.1815862345457</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760046</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425943</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>77.65365971207376</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246134</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937525</v>
+        <v>43.32085084937516</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074813</v>
+        <v>44.33060630074799</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>55.34430664941473</v>
       </c>
       <c r="X6" t="n">
-        <v>114.8388356972845</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>145.4732579572523</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599131</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304052</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>30.29414912736355</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130603</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>172.7536653422457</v>
       </c>
       <c r="G8" t="n">
-        <v>199.527201649877</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>115.230253902329</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
@@ -27985,7 +27985,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>172.4862383660574</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>30.89430838942323</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>9.068535313726681</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30750,10 +30750,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-8.851769786316591e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085667</v>
+        <v>3.050852781085672</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429359</v>
+        <v>31.24454604429364</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428053</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286698</v>
+        <v>258.9373162286702</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520262</v>
+        <v>388.0799144520268</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511768</v>
+        <v>481.4474502511775</v>
       </c>
       <c r="M5" t="n">
-        <v>535.703053396809</v>
+        <v>535.7030533968098</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610687</v>
+        <v>544.3712888610695</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191481</v>
+        <v>514.0343715191489</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860956</v>
+        <v>438.7164434860962</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634651</v>
+        <v>329.4577782634655</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098727</v>
+        <v>191.643131009873</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489897</v>
+        <v>69.52130774898981</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920251</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868533</v>
+        <v>0.2440682224868537</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030884</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403512</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062475</v>
+        <v>56.20152915062484</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475933</v>
+        <v>154.2212916475936</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316626</v>
+        <v>263.588751431663</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721883</v>
+        <v>354.4276051721888</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658078</v>
+        <v>413.6002979658084</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468659</v>
+        <v>424.5470671468665</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374446</v>
+        <v>388.3776244374452</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872485</v>
+        <v>311.7072835872489</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547494</v>
+        <v>208.3680642547497</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632158</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947715</v>
+        <v>30.3201880194772</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378869</v>
+        <v>6.579516597378879</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757161</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236994</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734524</v>
+        <v>41.1547536673453</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635545</v>
+        <v>96.75348224635559</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260798</v>
+        <v>158.99569282608</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162527</v>
+        <v>203.459746516253</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399134</v>
+        <v>214.5197755399138</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528485</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275344</v>
+        <v>193.4323186275347</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514996</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235541</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054699</v>
+        <v>61.53307486054708</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391196</v>
+        <v>23.849353923912</v>
       </c>
       <c r="T7" t="n">
-        <v>5.84725943883079</v>
+        <v>5.847259438830799</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656338</v>
+        <v>0.07464586517656349</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>639.47033547631</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>353.1300748477959</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593851</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135343</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>163.143825593292</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135343</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>163.143825593292</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135343</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>277.4567226539297</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646086</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061163</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520835</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400609</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198354</v>
+        <v>77.89141170198394</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070457</v>
+        <v>167.9900634070463</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811896</v>
+        <v>245.6810352811902</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695363</v>
+        <v>305.3568201695371</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644778</v>
+        <v>314.9582252644786</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974613</v>
+        <v>283.9361600974621</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308261</v>
+        <v>207.4834477308267</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890156</v>
+        <v>107.152088389016</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092665</v>
+        <v>27.38366498092688</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573036</v>
+        <v>125.747312457304</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923141</v>
+        <v>215.8732253923146</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437895</v>
+        <v>271.46626404379</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635326</v>
+        <v>293.2053550635331</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930002</v>
+        <v>245.7813799930008</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729182</v>
+        <v>177.7328761729187</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872787</v>
+        <v>68.38629016872818</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554441</v>
+        <v>29.98243465554464</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501444</v>
+        <v>68.57507023501472</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230838</v>
+        <v>75.5939915923087</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761528</v>
+        <v>81.73343028761559</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569163</v>
+        <v>54.97578017569191</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235199</v>
+        <v>27.78676100235225</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>508.1286233929767</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>219.1556674334657</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795109</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238456</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>20.54758114884752</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238456</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>20.54758114884752</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998983</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>138.9023428740554</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238456</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998983</v>
